--- a/public/templates/vocabulary_template.xlsx
+++ b/public/templates/vocabulary_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basit\Dropbox\My PC (LAPTOP-L7PDQOB1)\Downloads\JMR\ADMIN\JMR-Admin\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4672FA-AB9B-4B01-AB21-102887EC855F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DE8E8-9E2C-4B78-8BAA-D3A95ECF9248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6470C26C-2F8F-4562-903F-F3CCA5958D17}"/>
+    <workbookView xWindow="2448" yWindow="3516" windowWidth="17280" windowHeight="8880" xr2:uid="{6470C26C-2F8F-4562-903F-F3CCA5958D17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>word</t>
   </si>
   <si>
-    <t>script</t>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synonym </t>
+  </si>
+  <si>
+    <t>antonym</t>
+  </si>
+  <si>
+    <t>usage</t>
   </si>
 </sst>
 </file>
@@ -413,22 +422,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B2CCE-383E-41A8-BB6C-6BBC24D061D8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
